--- a/data/income_statement/1digit/size/C_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/C_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>C-Manufacturing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>C-Manufacturing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>87087131.91768001</v>
+        <v>89433679.77984999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>101854050.78611</v>
+        <v>104468309.60016</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>128369805.81174</v>
+        <v>131461172.36407</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>137430734.21435</v>
+        <v>141067091.21236</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>167819381.98123</v>
+        <v>173390034.67278</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>193613794.22898</v>
+        <v>201092556.94634</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>204527338.8824</v>
+        <v>215912652.8378899</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>217863100.35874</v>
+        <v>229404927.05774</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>263257813.00139</v>
+        <v>271911158.2251199</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>421512706.71077</v>
+        <v>431701481.72817</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>461029681.15567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>470814201.93524</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>557874215.855</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>67752434.95966999</v>
+        <v>69374700.37508</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>81611708.60168001</v>
+        <v>83292191.67380999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>103898613.37023</v>
+        <v>106101942.84185</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>111868879.12746</v>
+        <v>114354913.15413</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>135007050.86222</v>
+        <v>138984385.45444</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>156639821.30743</v>
+        <v>162153274.24818</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>168021717.2559</v>
+        <v>176259699.29044</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>178606712.62991</v>
+        <v>186961267.54456</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>217258446.12414</v>
+        <v>223025245.33614</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>327009867.2139699</v>
+        <v>335339831.7379299</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>355558457.6119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>360896444.78094</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>432322546.674</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>18298313.78853</v>
+        <v>18997948.73311</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>19133423.82381</v>
+        <v>20043146.37838</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>23102583.64729001</v>
+        <v>23915163.21356</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>23957969.22298</v>
+        <v>25038223.35531</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>30972512.50254</v>
+        <v>32518410.52066</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>34948728.82827</v>
+        <v>36810530.22552</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>34247764.93168001</v>
+        <v>37247225.63066</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>36431710.50011999</v>
+        <v>39478255.73226</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>42604190.84556</v>
+        <v>45329105.73235</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>88689894.47767001</v>
+        <v>90415289.28255001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>98806191.84209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>103017512.12024</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>117708680.558</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1036383.16948</v>
+        <v>1061030.67166</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1108918.36062</v>
+        <v>1132971.54797</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1368608.79422</v>
+        <v>1444066.30866</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1603885.86391</v>
+        <v>1673954.70292</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1839818.61647</v>
+        <v>1887238.69768</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2025244.09328</v>
+        <v>2128752.47264</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2257856.69482</v>
+        <v>2405727.91679</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2824677.22871</v>
+        <v>2965403.78092</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>3395176.03169</v>
+        <v>3556807.15663</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>5812945.01913</v>
+        <v>5946360.70769</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>6665031.70168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>6900245.03406</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>7842988.623</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2064584.09782</v>
+        <v>2224971.764810001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2589727.812289999</v>
+        <v>2796874.19204</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2515594.73506</v>
+        <v>2790989.45007</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2814608.89297</v>
+        <v>2997775.81898</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3428517.46138</v>
+        <v>3746235.964850001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4002393.86375</v>
+        <v>4459466.358989999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4256058.78948</v>
+        <v>4766443.06819</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5534416.70313</v>
+        <v>6153079.838850001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>5784895.755259999</v>
+        <v>6039929.766720002</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>11537678.33586</v>
+        <v>16388629.34804</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>11184284.38299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>11558839.84709</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>12913094.375</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>940133.4939100001</v>
+        <v>953633.4873500001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1042815.35191</v>
+        <v>1070428.93144</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1257744.69118</v>
+        <v>1289143.33414</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1418092.206749999</v>
+        <v>1436254.18867</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1603158.36318</v>
+        <v>1654864.75102</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2069023.87824</v>
+        <v>2193591.073919999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2170808.18356</v>
+        <v>2361242.70595</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3594509.12145</v>
+        <v>3826855.04263</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>3595233.84976</v>
+        <v>3713882.21497</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>6724425.00592</v>
+        <v>11345348.70837</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>6495887.940330001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6366833.608290001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>7573208.347</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>920659.7098399999</v>
+        <v>1050724.59645</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1362733.16828</v>
+        <v>1520536.92633</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1077981.55978</v>
+        <v>1285997.21245</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1154119.03325</v>
+        <v>1278617.94034</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1509883.14628</v>
+        <v>1760944.3025</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1584205.49392</v>
+        <v>1889483.70805</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1685423.57051</v>
+        <v>1933498.11299</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1554659.5163</v>
+        <v>1902708.34791</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1730814.206</v>
+        <v>1837248.14066</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3546381.36452</v>
+        <v>3793036.032150001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3681414.36174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4163452.67132</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4050917.387</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>203790.89407</v>
+        <v>220613.68101</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>184179.2921</v>
+        <v>205908.33427</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>179868.4841</v>
+        <v>215848.90348</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>242397.65297</v>
+        <v>282903.68997</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>315475.95192</v>
+        <v>330426.91133</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>349164.49159</v>
+        <v>376391.57702</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>399827.03541</v>
+        <v>471702.2492499999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>385248.0653800001</v>
+        <v>423516.4483100001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>458847.6995</v>
+        <v>488799.41109</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1266871.96542</v>
+        <v>1250244.60752</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1006982.08092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1028553.56748</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1288968.641</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>85022547.81985998</v>
+        <v>87208708.01504001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>99264322.97382</v>
+        <v>101671435.40812</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>125854211.07668</v>
+        <v>128670182.914</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>134616125.32138</v>
+        <v>138069315.39338</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>164390864.51985</v>
+        <v>169643798.70793</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>189611400.36523</v>
+        <v>196633090.58735</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>200271280.09292</v>
+        <v>211146209.7697001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>212328683.65561</v>
+        <v>223251847.21889</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>257472917.24613</v>
+        <v>265871228.4584</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>409975028.37491</v>
+        <v>415312852.38013</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>449845396.77268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>459255362.08815</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>544961121.48</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>72121319.69351999</v>
+        <v>73954681.59905</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>85249164.39195001</v>
+        <v>87393470.99014001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>108204041.8196</v>
+        <v>110443261.35895</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>115710939.387</v>
+        <v>118663016.84317</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>140025119.34822</v>
+        <v>144301718.04927</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>161906988.57407</v>
+        <v>167493179.80268</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>170124996.45958</v>
+        <v>178862819.57816</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>180401384.96882</v>
+        <v>189208586.27178</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>219143566.00924</v>
+        <v>225704518.38503</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>343048289.94405</v>
+        <v>346737990.94997</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>378214419.2079599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>385456745.2991601</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>454407280.536</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>57580251.14626</v>
+        <v>59167173.84654</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>68071372.72248998</v>
+        <v>69649746.28836</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>83950987.5151</v>
+        <v>85681206.77610999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>91775496.78521001</v>
+        <v>94242271.17350999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>112494663.6812</v>
+        <v>115835891.34647</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>128500631.35328</v>
+        <v>133320882.0667</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>134799748.94604</v>
+        <v>142069613.15506</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>139832593.3804</v>
+        <v>147322565.47247</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>168789083.40602</v>
+        <v>174630547.15589</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>279074587.7822599</v>
+        <v>282367828.05215</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>304625019.4326801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>311602622.61746</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>358201969.686</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>10403856.09376</v>
+        <v>10359533.25189</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>12555708.91432</v>
+        <v>12673878.58592</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>18741466.96740001</v>
+        <v>18761600.99621</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>18089300.56296</v>
+        <v>18143635.10415</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>20327938.15817999</v>
+        <v>20631960.92139</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>24273833.30424</v>
+        <v>24482901.17771</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>26286849.30844</v>
+        <v>26884513.4335</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>29708321.70612</v>
+        <v>30209818.75009</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>37832613.52902</v>
+        <v>37767564.53877001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>45403760.05736999</v>
+        <v>45021552.85042001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>52331199.77715001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>51845057.6803</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>71413312.044</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3663864.470359999</v>
+        <v>3917389.27828</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4108845.366249999</v>
+        <v>4511265.78503</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4916653.367829999</v>
+        <v>5367048.321909999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>5202329.40618</v>
+        <v>5616193.853400001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>6481488.417479999</v>
+        <v>7082130.339200001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>8249040.78073</v>
+        <v>8751741.431500003</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>8152028.850559999</v>
+        <v>8955485.460369999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>9738415.92412</v>
+        <v>10498780.11568</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>11482042.18616</v>
+        <v>12191305.5096</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>16432925.21612</v>
+        <v>17098486.687</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>18621633.56072</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19231221.46912001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>22069256.853</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>473347.98314</v>
+        <v>510585.22234</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>513237.38889</v>
+        <v>558580.3308299999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>594933.96927</v>
+        <v>633405.26472</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>643812.6326499999</v>
+        <v>660916.71211</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>721029.0913599998</v>
+        <v>751735.4422099999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>883483.1358199999</v>
+        <v>937655.12677</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>886369.35454</v>
+        <v>953207.52923</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1122053.95818</v>
+        <v>1177421.93354</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1039826.88804</v>
+        <v>1115101.18077</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2137016.8883</v>
+        <v>2250123.360400001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2636566.43741</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2777843.53228</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2722741.953</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>12901228.12634</v>
+        <v>13254026.41599</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>14015158.58187</v>
+        <v>14277964.41798</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>17650169.25708</v>
+        <v>18226921.55505</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>18905185.93438</v>
+        <v>19406298.55021</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>24365745.17163001</v>
+        <v>25342080.65865999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>27704411.79116</v>
+        <v>29139910.78467</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>30146283.63334</v>
+        <v>32283390.19154</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>31927298.68679</v>
+        <v>34043260.94711</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>38329351.23689</v>
+        <v>40166710.07336999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>66926738.43085999</v>
+        <v>68574861.43016</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>71630977.56472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>73798616.78899001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>90553840.94400001</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>8113423.924000001</v>
+        <v>8361159.0746</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>9213505.142259996</v>
+        <v>9476281.15192</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>10773913.35405</v>
+        <v>11044793.12965</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>12275778.29358</v>
+        <v>12603630.09577</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>15061374.07174</v>
+        <v>15641213.26912</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>16822474.58318</v>
+        <v>17593639.41256</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>17865244.10531</v>
+        <v>18933585.86273</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>19554219.68702</v>
+        <v>20576788.20227</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>22311937.96673</v>
+        <v>22940098.60964</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>33298053.13619</v>
+        <v>33893732.4685</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>38292457.03756</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>39098558.47187001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>42068686.445</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>94384.49255999998</v>
+        <v>104618.63633</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>94145.03728999999</v>
+        <v>100499.45203</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>114204.6653</v>
+        <v>121518.46445</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>118610.8805</v>
+        <v>132691.44161</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>162712.42199</v>
+        <v>185720.23133</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>185445.30442</v>
+        <v>215291.20721</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>197109.60679</v>
+        <v>235513.91697</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>206331.00878</v>
+        <v>235628.61823</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>242940.62901</v>
+        <v>268877.3572199999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>497570.9107499999</v>
+        <v>555671.7583999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>633577.7472699997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>708317.63457</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>806054.611</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>3450653.12502</v>
+        <v>3633714.54171</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3897439.04868</v>
+        <v>4085432.28404</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>4469368.72455</v>
+        <v>4663199.946879999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>5050184.758880001</v>
+        <v>5252371.608820001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>6453550.1614</v>
+        <v>6820544.09531</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>7048133.12158</v>
+        <v>7541072.326439999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>7292049.74292</v>
+        <v>7925659.31905</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>7715773.926699999</v>
+        <v>8330838.66586</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>8879902.16131</v>
+        <v>9431260.312080001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>15234749.91816</v>
+        <v>15703217.30132</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>16932027.83573</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17516746.12729</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>18229411.369</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>4568386.306419999</v>
+        <v>4622825.896559999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>5221921.05629</v>
+        <v>5290349.41585</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>6190339.964200001</v>
+        <v>6260074.71832</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>7106982.654200001</v>
+        <v>7218567.04534</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>8445111.48835</v>
+        <v>8634948.94248</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>9588896.157179998</v>
+        <v>9837275.87891</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>10376084.7556</v>
+        <v>10772412.62671</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>11632114.75154</v>
+        <v>12010320.91818</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>13189095.17641</v>
+        <v>13239960.94034</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>17565732.30728</v>
+        <v>17634843.40878</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>20726851.45456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20873494.71001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>23033220.465</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>4787804.20234</v>
+        <v>4892867.341390002</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>4801653.439610001</v>
+        <v>4801683.266060001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>6876255.903029998</v>
+        <v>7182128.425400001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>6629407.6408</v>
+        <v>6802668.45444</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>9304371.099890001</v>
+        <v>9700867.38954</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>10881937.20798</v>
+        <v>11546271.37211</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>12281039.52803</v>
+        <v>13349804.32881</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>12373078.99977</v>
+        <v>13466472.74484</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>16017413.27016</v>
+        <v>17226611.46373</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>33628685.29467</v>
+        <v>34681128.96166001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>33338520.52716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>34700058.31712</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>48485154.499</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2852332.13691</v>
+        <v>3200333.37914</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2627894.65081</v>
+        <v>3083777.11196</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2793715.048769999</v>
+        <v>3091491.18193</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2301059.560839999</v>
+        <v>2602829.06606</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4058205.64566</v>
+        <v>4735906.981319998</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4188529.59788</v>
+        <v>4894818.87629</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6530168.01676</v>
+        <v>8250705.712660002</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5827706.093140001</v>
+        <v>7354186.506830001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>6744634.610849999</v>
+        <v>8423573.23862</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>34535494.55022999</v>
+        <v>37932499.20347001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>18977906.94559</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>20422593.96472</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>32612993.876</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>27044.03336</v>
+        <v>32487.06663</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>31107.98587</v>
+        <v>20970.29695</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>34775.94066000001</v>
+        <v>30786.58586</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>32599.84364</v>
+        <v>20823.18714</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>50281.00381</v>
+        <v>55458.77684999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>61439.19835</v>
+        <v>51425.66461</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>57411.08222</v>
+        <v>75719.52007000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>56462.91025</v>
+        <v>255080.61783</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>70862.80293999999</v>
+        <v>123967.83606</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>190609.49059</v>
+        <v>144268.59412</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>148903.95445</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>219881.98389</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>101441.774</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>12204.98398</v>
+        <v>11905.36736</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>14191.21521</v>
+        <v>9138.830960000001</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>9135.532610000002</v>
+        <v>4720.77584</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>4805.95118</v>
+        <v>27685.15425</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>16540.96546</v>
+        <v>25248.35948</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>30966.54781</v>
+        <v>26952.96079</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>13976.32073</v>
+        <v>20390.79819</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>31303.25278</v>
+        <v>35058.1795</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>38401.80267</v>
+        <v>307117.45538</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>162407.56809</v>
+        <v>414809.5605499999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>213157.20605</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>148254.05907</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>113431.683</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>239942.06174</v>
+        <v>259916.29183</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>198069.46628</v>
+        <v>216374.72602</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>212501.65163</v>
+        <v>248202.10927</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>267234.66855</v>
+        <v>295999.4318099999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>310908.8087700001</v>
+        <v>338447.90345</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>389836.41208</v>
+        <v>414438.3261299999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>447866.29281</v>
+        <v>492324.00468</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>432014.71644</v>
+        <v>508886.0516</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>589857.2262499999</v>
+        <v>651460.2280199998</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1399657.47138</v>
+        <v>1583021.63132</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1590910.90574</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1823874.77024</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1550213.3</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>13602.49341</v>
+        <v>13266.55983</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>15994.26521</v>
+        <v>14020.95173</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>14506.65648</v>
+        <v>15399.89946</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>14067.85143</v>
+        <v>14289.45391</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>17934.96062</v>
+        <v>16496.70891</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>18213.02337</v>
+        <v>13881.56504</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>34641.69911</v>
+        <v>35004.28178</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>20204.58308</v>
+        <v>22966.40959</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>49572.55742</v>
+        <v>50974.60335</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>139925.30402</v>
+        <v>135225.14116</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>124502.89443</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>176271.04733</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>153395.027</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>58210.80301</v>
+        <v>102600.76407</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>57827.21396</v>
+        <v>65931.04912000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>57387.89243999999</v>
+        <v>66131.87987</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>52811.70587999999</v>
+        <v>57322.8067</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>121685.78324</v>
+        <v>97495.85144</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>86072.74512000002</v>
+        <v>101278.74939</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>107999.47207</v>
+        <v>120161.85578</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>129497.25909</v>
+        <v>121119.77752</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>104858.67123</v>
+        <v>106055.05512</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>230362.75259</v>
+        <v>192323.26577</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>314360.0002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>249584.24146</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>275486.584</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>17626.20344</v>
+        <v>34059.26978000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>15792.8086</v>
+        <v>23515.17995</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>15959.12862</v>
+        <v>18997.70579</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>38641.45467</v>
+        <v>29636.11892</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>24461.47605</v>
+        <v>66429.31427</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>65169.50227</v>
+        <v>65547.81958</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>64541.5739</v>
+        <v>75630.09728</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>31359.75706</v>
+        <v>50036.68872999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>46558.16540999999</v>
+        <v>59619.58582000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>140653.85335</v>
+        <v>300517.5806699999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>175384.49305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>131462.23737</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>429411.709</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1751014.28413</v>
+        <v>1981458.62155</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1546150.96954</v>
+        <v>1917985.42981</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1951001.0588</v>
+        <v>2228440.85848</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1382604.06114</v>
+        <v>1665705.11274</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2824517.9079</v>
+        <v>3405752.84259</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2712307.24976</v>
+        <v>3432861.3424</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4999377.28368</v>
+        <v>6485151.160799998</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>4182943.62168</v>
+        <v>5323599.65745</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4738974.66541</v>
+        <v>5898287.425259999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>29840579.94664</v>
+        <v>32685635.3386</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>13773205.8236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>15002058.73835</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>27210791.09</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>26779.15897</v>
+        <v>35761.00235</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>24053.89628</v>
+        <v>31157.03980999999</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>11678.75536</v>
+        <v>15775.98264</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>18171.381</v>
+        <v>18944.15196</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>43007.36429</v>
+        <v>53848.30972999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>55551.82533</v>
+        <v>78030.69076000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>68641.01779000001</v>
+        <v>81626.70636</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>66129.29141000001</v>
+        <v>89761.00785000001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>50532.21126</v>
+        <v>75526.78600000002</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>292081.8238999999</v>
+        <v>324429.8309000001</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>383632.58694</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>412629.1949899999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>271723.233</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>4533.42509</v>
+        <v>4094.09568</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>7965.808150000001</v>
+        <v>8563.42806</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>14203.8224</v>
+        <v>12777.52132</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>7239.591030000001</v>
+        <v>7315.843299999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>13198.76227</v>
+        <v>11851.55858</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>10549.35196</v>
+        <v>9777.596549999998</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>20621.14085</v>
+        <v>19691.35369</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>26664.03509</v>
+        <v>26740.64043</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>38940.85426000001</v>
+        <v>40055.50255999999</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>99922.12176000001</v>
+        <v>115876.23728</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>34275.85881000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>54911.46675</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>92900.45600000001</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>701374.6897800001</v>
+        <v>724784.3400600001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>716741.02171</v>
+        <v>776120.17955</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>472564.60977</v>
+        <v>450257.8634</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>482883.05232</v>
+        <v>465107.8053300001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>635668.6132500001</v>
+        <v>664877.3560200001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>758423.74183</v>
+        <v>700624.1610399999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>715092.1335999999</v>
+        <v>845005.93403</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>851126.66626</v>
+        <v>920937.4763300001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1016075.654</v>
+        <v>1110508.76105</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2039294.21791</v>
+        <v>2036392.0231</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2219573.22232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2203666.22527</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2414199.02</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2648296.38258</v>
+        <v>2909562.297939999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2262702.35872</v>
+        <v>2571485.66235</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3038059.85205</v>
+        <v>3416926.58758</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1858370.15257</v>
+        <v>2089785.65815</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4513249.062950001</v>
+        <v>5371684.692430001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3919663.60557</v>
+        <v>4718174.962610002</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6848638.353949999</v>
+        <v>9969956.03772</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5994977.62109</v>
+        <v>7493492.73675</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>6513147.65927</v>
+        <v>8131625.584629999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>36793072.09460999</v>
+        <v>39814956.87471</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>16871981.62884</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>18463880.72576</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>29613737.05</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>66730.13924</v>
+        <v>65556.35997</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>69001.92894</v>
+        <v>72021.63227</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>76599.0162</v>
+        <v>77384.95728999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>83575.2579</v>
+        <v>85749.52984999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>101306.37084</v>
+        <v>103717.48205</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>117089.14809</v>
+        <v>120595.58475</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>124081.43634</v>
+        <v>132425.65476</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>129006.40849</v>
+        <v>136189.12217</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>135077.16429</v>
+        <v>145986.2348</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>309252.0597</v>
+        <v>309690.97535</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>330986.5106099999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>333412.12575</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>383830.344</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>382329.4503099999</v>
+        <v>408787.84914</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>217379.67728</v>
+        <v>232879.24913</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>247529.10728</v>
+        <v>279214.42443</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>331062.6681499999</v>
+        <v>351543.13914</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>416413.41455</v>
+        <v>445754.5468</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>409806.60908</v>
+        <v>440796.9578699999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>570338.03169</v>
+        <v>633839.29655</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>570270.07447</v>
+        <v>606469.6580199999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>462110.2864400001</v>
+        <v>503635.34683</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1060906.44924</v>
+        <v>1136010.05796</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1098873.60998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1158166.84724</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1265469.419</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>8056.38658</v>
+        <v>8422.644829999999</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>5563.683550000001</v>
+        <v>10792.49675</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>9936.885679999999</v>
+        <v>32411.0967</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>15830.33979</v>
+        <v>15748.83865</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>13234.01278</v>
+        <v>20364.20101</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>41843.70116</v>
+        <v>12446.80681</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>13442.06162</v>
+        <v>21780.14444</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>11898.73707</v>
+        <v>10855.264</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>13892.16861</v>
+        <v>18540.05248</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>118202.0861</v>
+        <v>94540.82981000001</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>59800.08629</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>58558.16282000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>180256.134</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1707399.71894</v>
+        <v>1921914.70279</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1464934.50444</v>
+        <v>1749909.53316</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2472098.64003</v>
+        <v>2772352.39053</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1225472.95513</v>
+        <v>1434559.90426</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3685061.27964</v>
+        <v>4433590.203059999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3042906.37116</v>
+        <v>3793291.10071</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5772812.898250001</v>
+        <v>7821127.122579998</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4924518.32132</v>
+        <v>6301372.809459999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5449140.27388</v>
+        <v>6971636.06778</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>34072141.01226</v>
+        <v>36834674.08284</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>14268550.08065</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>15723962.8343</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>26558633.871</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>21734.92607999999</v>
+        <v>33727.07495</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>21472.1005</v>
+        <v>27960.80705</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>13394.64525</v>
+        <v>16991.4709</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>18259.34686</v>
+        <v>21061.55313</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>59389.41806</v>
+        <v>74963.45027000002</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>64067.84137</v>
+        <v>86408.57434000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>76089.74728999998</v>
+        <v>91982.06671000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>67949.63467999999</v>
+        <v>88719.14751999998</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>57580.09108</v>
+        <v>84542.18982999999</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>357955.31482</v>
+        <v>400653.93896</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>379793.10314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>402608.174</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>331179.956</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>5998.106960000001</v>
+        <v>5641.12759</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>11634.64541</v>
+        <v>10218.84726</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>25730.69997</v>
+        <v>19240.46534</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>8026.409129999999</v>
+        <v>6577.20256</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>13697.38616</v>
+        <v>11124.04956</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>16262.77472</v>
+        <v>15281.77735</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>17068.96962</v>
+        <v>16828.95355</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>13507.41507</v>
+        <v>18946.20004</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>25278.10932</v>
+        <v>42852.74808999999</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>90806.31709</v>
+        <v>89508.84436999999</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>33561.58952</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>50292.90274</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>131314.161</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>456047.65447</v>
+        <v>465512.5386700001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>472715.8186</v>
+        <v>467703.0967299999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>192770.85764</v>
+        <v>219331.78239</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>176143.17561</v>
+        <v>174545.49056</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>224147.18092</v>
+        <v>282170.75968</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>227687.15999</v>
+        <v>249354.16078</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>274805.20914</v>
+        <v>1251972.79913</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>277827.02999</v>
+        <v>330940.53554</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>370069.5656499999</v>
+        <v>364432.94482</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>783808.8554</v>
+        <v>949878.1454200001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>700416.64865</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>736879.67891</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>763053.165</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2200581.76122</v>
+        <v>2393717.5047</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1717028.4329</v>
+        <v>1937185.19154</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2371377.69826</v>
+        <v>2680518.58753</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2659257.7213</v>
+        <v>2858467.9254</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3423126.7182</v>
+        <v>3777386.5786</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3886020.78547</v>
+        <v>4394304.836910001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4802345.53064</v>
+        <v>5685731.304289999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5215274.815959999</v>
+        <v>6043801.59756</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>6041742.48936</v>
+        <v>6832023.227440001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>14083668.22259</v>
+        <v>15508228.07978</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>13014684.63622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>13638428.92181</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>13080378.806</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2045235.61615</v>
+        <v>2173476.24716</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1598310.56046</v>
+        <v>1750288.95316</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2211855.34582</v>
+        <v>2395308.808440001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2513895.8961</v>
+        <v>2688270.85599</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3137535.65868</v>
+        <v>3365818.31537</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3667538.39514</v>
+        <v>4078770.229130001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4506712.4623</v>
+        <v>5165985.38795</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4887234.731909999</v>
+        <v>5585837.77383</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>5648014.434930001</v>
+        <v>6365794.76368</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>12812042.24517</v>
+        <v>13807546.76374</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>12088366.44163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>12515350.57005</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>11920644.14</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>155346.1450700001</v>
+        <v>220241.25754</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>118717.87244</v>
+        <v>186896.23838</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>159522.35244</v>
+        <v>285209.77909</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>145361.8252</v>
+        <v>170197.06941</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>285591.05952</v>
+        <v>411568.26323</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>218482.39033</v>
+        <v>315534.60778</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>295633.0683400001</v>
+        <v>519745.9163400001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>328040.08405</v>
+        <v>457963.82373</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>393728.05443</v>
+        <v>466228.46376</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1271625.97742</v>
+        <v>1700681.31604</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>926318.1945900001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1123078.35176</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1159734.666</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2791258.19545</v>
+        <v>2789920.917889999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3449817.2988</v>
+        <v>3376789.52413</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>4260533.401489999</v>
+        <v>4176174.43222</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>4412839.32777</v>
+        <v>4457243.93695</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>5426200.9644</v>
+        <v>5287703.09983</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>7264782.414820001</v>
+        <v>7328610.448879999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>7160223.660199999</v>
+        <v>5944822.699460002</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>6990532.655859998</v>
+        <v>7283364.91736</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>10207157.73238</v>
+        <v>10686535.89028</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>17287439.5277</v>
+        <v>17290443.21064</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>22429761.20769</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>23020342.63427</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>38404032.519</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>736779.26031</v>
+        <v>808369.0140199999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>754918.3001699999</v>
+        <v>950685.0209100001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>847500.4864100001</v>
+        <v>890754.3295400001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>931099.3762400002</v>
+        <v>979568.4639000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1345721.46816</v>
+        <v>1396749.53054</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1431166.25013</v>
+        <v>1626119.73538</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1650689.05034</v>
+        <v>1886926.04827</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2018912.73505</v>
+        <v>2239851.303919999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2342129.81003</v>
+        <v>2386444.31382</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3622898.08346</v>
+        <v>3806982.47004</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3880426.972350001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3819946.74799</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4743066.681</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>24402.38903999999</v>
+        <v>23840.09966</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>18944.79428</v>
+        <v>35998.34246</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>22094.32336</v>
+        <v>37674.77075</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>24236.92852999999</v>
+        <v>26495.70539</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>23526.02314</v>
+        <v>24223.51451</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>42221.38486</v>
+        <v>24430.11159</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>29113.81119</v>
+        <v>33185.10601</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>26729.92017</v>
+        <v>39158.63474</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>33345.09342</v>
+        <v>27867.37491</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>103174.02417</v>
+        <v>126114.66595</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>97782.51522999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>98577.77576</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>97669.28599999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>712376.8712700001</v>
+        <v>784528.9143599999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>735973.5058899999</v>
+        <v>914686.6784499998</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>825406.1630500001</v>
+        <v>853079.5587900002</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>906862.4477100001</v>
+        <v>953072.75851</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1322195.44502</v>
+        <v>1372526.01603</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1388944.86527</v>
+        <v>1601689.62379</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1621575.23915</v>
+        <v>1853740.94226</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1992182.81488</v>
+        <v>2200692.66918</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2308784.71661</v>
+        <v>2358576.93891</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3519724.05929</v>
+        <v>3680867.80409</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3782644.457119999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3721368.972229999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4645397.395</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>882591.5238099999</v>
+        <v>846520.46965</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>630029.3842399999</v>
+        <v>837444.34592</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3537327.22534</v>
+        <v>3632283.582039999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>842812.40304</v>
+        <v>976280.8140499999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>985817.9341899999</v>
+        <v>1073897.1569</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2193143.63476</v>
+        <v>2440327.18535</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1141457.88149</v>
+        <v>1452830.46042</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>3354253.33851</v>
+        <v>3694987.56877</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1441326.19977</v>
+        <v>1631629.34729</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>4478208.13346</v>
+        <v>4351983.2356</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3038477.698719999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3315164.79715</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3050699.496</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>100506.13778</v>
+        <v>191239.39861</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>95759.80588999999</v>
+        <v>171430.96203</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>82652.56821000001</v>
+        <v>144848.07643</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>88240.41462000003</v>
+        <v>132214.57455</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>145134.5828</v>
+        <v>176900.53389</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>157779.22311</v>
+        <v>205762.87832</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>130985.52645</v>
+        <v>183746.13722</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>150090.52263</v>
+        <v>211392.3516</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>131275.34306</v>
+        <v>177769.9752</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>306515.5344</v>
+        <v>369277.29064</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>399615.02339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>550702.8314900001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>421327.576</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>70116.21845000001</v>
+        <v>75812.01190000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>57990.66396000001</v>
+        <v>71218.06328999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>79693.06413</v>
+        <v>98574.05579000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>45517.64658</v>
+        <v>49476.09415</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>57951.0866</v>
+        <v>67473.72081</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>115632.08503</v>
+        <v>123784.38205</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>86995.06473000001</v>
+        <v>99443.04262000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>111744.84425</v>
+        <v>118822.24998</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>68282.47636999999</v>
+        <v>83693.31831999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>135306.24894</v>
+        <v>161103.06915</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>208368.56689</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>166039.82464</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>161718.373</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>711969.16758</v>
+        <v>579469.0591400001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>476278.91439</v>
+        <v>594795.3205999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>3374981.593</v>
+        <v>3388861.44982</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>709054.34184</v>
+        <v>794590.1453500001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>782732.2647899999</v>
+        <v>829522.9022</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1919732.32662</v>
+        <v>2110779.92498</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>923477.29031</v>
+        <v>1169641.28058</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>3092417.97163</v>
+        <v>3364772.96719</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1241768.38034</v>
+        <v>1370166.05377</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>4036386.350120001</v>
+        <v>3821602.87581</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2430494.10844</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2598422.14102</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2467653.547</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2645445.93195</v>
+        <v>2751769.46226</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>3574706.21473</v>
+        <v>3490030.19912</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1570706.66256</v>
+        <v>1434645.17972</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>4501126.300969999</v>
+        <v>4460531.5868</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5786104.498370001</v>
+        <v>5610555.473470001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>6502805.030189999</v>
+        <v>6514402.99891</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>7669454.829049999</v>
+        <v>6378918.28731</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5655192.052399999</v>
+        <v>5828228.65251</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>11107961.34264</v>
+        <v>11441350.85681</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>16432129.4777</v>
+        <v>16745442.44508</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>23271710.48132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>23525124.58510999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>40096399.704</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>682343.69875</v>
+        <v>697195.169</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>756854.8668900001</v>
+        <v>775932.33464</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>954385.98099</v>
+        <v>988112.6242100002</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>998781.8912800002</v>
+        <v>1027659.74872</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1303528.53879</v>
+        <v>1342796.2089</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1486641.91337</v>
+        <v>1546445.14407</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1626465.81165</v>
+        <v>1684966.1514</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1652666.43571</v>
+        <v>1752787.1852</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2054049.32807</v>
+        <v>2126587.27394</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3864870.15066</v>
+        <v>3907770.28052</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4299343.338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4375783.141650001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>6745156.493</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1963102.2332</v>
+        <v>2054574.29326</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2817851.34784</v>
+        <v>2714097.86448</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>616320.6815699999</v>
+        <v>446532.55551</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3502344.40969</v>
+        <v>3432871.83808</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>4482575.95958</v>
+        <v>4267759.264570001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>5016163.11682</v>
+        <v>4967957.854840001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>6042989.0174</v>
+        <v>4693952.135910001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4002525.61669</v>
+        <v>4075441.467309999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>9053912.014570002</v>
+        <v>9314763.582869999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>12567259.32704</v>
+        <v>12837672.16456</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>18972367.14332</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>19149341.44346</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>33351243.211</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>9188</v>
+        <v>7735</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>10380</v>
+        <v>8727</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>11798</v>
+        <v>10101</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>12953</v>
+        <v>10997</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>11615</v>
+        <v>10143</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>12758</v>
+        <v>11175</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>13678</v>
+        <v>11865</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>14665</v>
+        <v>12146</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>16516</v>
+        <v>13329</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>11159</v>
+        <v>10329</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>11381</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>10452</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>11698</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>